--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T18:26:39+00:00</t>
+    <t>2022-09-05T12:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:17:02+00:00</t>
+    <t>2022-09-05T12:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:37:44+00:00</t>
+    <t>2022-09-05T15:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:36:05+00:00</t>
+    <t>2022-09-05T19:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T19:43:49+00:00</t>
+    <t>2022-09-05T20:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:02:35+00:00</t>
+    <t>2022-09-05T20:52:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:52:48+00:00</t>
+    <t>2022-09-06T09:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:51:55+00:00</t>
+    <t>2022-09-06T10:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:23:58+00:00</t>
+    <t>2022-09-06T10:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:35:52+00:00</t>
+    <t>2022-09-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:50:16+00:00</t>
+    <t>2022-09-06T13:52:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:52:47+00:00</t>
+    <t>2022-09-06T13:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:57:27+00:00</t>
+    <t>2022-09-06T15:51:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:51:32+00:00</t>
+    <t>2022-09-06T16:22:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T16:22:29+00:00</t>
+    <t>2022-09-07T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:47:40+00:00</t>
+    <t>2022-09-07T08:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:51:15+00:00</t>
+    <t>2022-09-07T09:51:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:51:43+00:00</t>
+    <t>2022-09-07T09:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:57:24+00:00</t>
+    <t>2022-09-07T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="350">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:41:33+00:00</t>
+    <t>2022-09-09T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -283,7 +283,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -697,6 +697,10 @@
   </si>
   <si>
     <t>Appointment.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Shown on a subject line in a meeting request, or appointment list</t>
@@ -3761,13 +3765,13 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3836,21 +3840,21 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3873,13 +3877,13 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3930,7 +3934,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3945,16 +3949,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -3962,7 +3966,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3985,13 +3989,13 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4042,7 +4046,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4057,24 +4061,24 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4097,13 +4101,13 @@
         <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4154,7 +4158,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -4169,24 +4173,24 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4209,13 +4213,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4266,7 +4270,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -4281,13 +4285,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4298,7 +4302,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4321,13 +4325,13 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4378,7 +4382,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4396,7 +4400,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4410,7 +4414,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4433,16 +4437,16 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4492,7 +4496,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4507,13 +4511,13 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4524,7 +4528,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4547,16 +4551,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4606,7 +4610,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4621,24 +4625,24 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4661,13 +4665,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4718,7 +4722,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4736,25 +4740,25 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4773,13 +4777,13 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4830,7 +4834,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4845,10 +4849,10 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4862,7 +4866,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4885,13 +4889,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4942,7 +4946,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>86</v>
@@ -4954,27 +4958,27 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4997,13 +5001,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5054,7 +5058,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5086,7 +5090,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5115,7 +5119,7 @@
         <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>135</v>
@@ -5168,7 +5172,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5200,11 +5204,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5226,10 +5230,10 @@
         <v>132</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>135</v>
@@ -5284,7 +5288,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5316,7 +5320,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5342,13 +5346,13 @@
         <v>165</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5374,13 +5378,13 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
@@ -5398,7 +5402,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5416,7 +5420,7 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>170</v>
@@ -5425,12 +5429,12 @@
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5453,13 +5457,13 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5510,7 +5514,7 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5528,21 +5532,21 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5568,10 +5572,10 @@
         <v>106</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5601,10 +5605,10 @@
         <v>156</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>76</v>
@@ -5622,7 +5626,7 @@
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5640,10 +5644,10 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5654,7 +5658,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5680,10 +5684,10 @@
         <v>106</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5713,10 +5717,10 @@
         <v>156</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>76</v>
@@ -5734,7 +5738,7 @@
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>86</v>
@@ -5752,21 +5756,21 @@
         <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5789,13 +5793,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5846,7 +5850,7 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -5878,7 +5882,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5901,16 +5905,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5960,7 +5964,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5975,10 +5979,10 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5987,7 +5991,7 @@
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:12:33+00:00</t>
+    <t>2022-09-09T14:31:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T14:31:53+00:00</t>
+    <t>2022-09-12T10:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T10:06:31+00:00</t>
+    <t>2022-09-14T11:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T11:15:14+00:00</t>
+    <t>2022-09-15T17:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/covid19-vaccination-appointment</t>
+    <t>http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-vaccination-appointment</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T17:44:16+00:00</t>
+    <t>2022-09-15T19:52:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid-casereporting/StructureDefinition/covid19-vaccination-appointment</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-vaccination-appointment</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T19:52:53+00:00</t>
+    <t>2022-09-16T13:03:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T13:03:17+00:00</t>
+    <t>2022-09-16T14:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:32:23+00:00</t>
+    <t>2022-09-16T18:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T18:53:42+00:00</t>
+    <t>2022-09-16T19:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T19:44:32+00:00</t>
+    <t>2022-09-16T20:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T20:08:29+00:00</t>
+    <t>2022-09-19T15:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T15:24:10+00:00</t>
+    <t>2022-09-21T08:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T08:12:07+00:00</t>
+    <t>2022-09-21T10:21:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T10:21:48+00:00</t>
+    <t>2022-09-22T08:03:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T08:03:20+00:00</t>
+    <t>2022-10-06T11:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="348">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:22:19+00:00</t>
+    <t>2022-11-03T06:19:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s).</t>
-  </si>
-  <si>
-    <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
-app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -921,10 +917,6 @@
   </si>
   <si>
     <t>List of participants involved in the appointment.</t>
-  </si>
-  <si>
-    <t>app-1:Either the type or actor on the participant SHALL be specified {type.exists() or actor.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>Request.performer, Request.subject</t>
@@ -1694,16 +1686,16 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>76</v>
@@ -1714,7 +1706,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1725,28 +1717,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -1796,13 +1788,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -1828,7 +1820,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1839,25 +1831,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1908,19 +1900,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -1940,7 +1932,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1951,28 +1943,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2022,19 +2014,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -2054,7 +2046,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2065,7 +2057,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -2077,16 +2069,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2112,43 +2104,43 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -2168,18 +2160,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -2191,16 +2183,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2250,25 +2242,25 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>76</v>
@@ -2282,11 +2274,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2305,16 +2297,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2364,7 +2356,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2382,7 +2374,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>76</v>
@@ -2396,11 +2388,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2419,16 +2411,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2478,7 +2470,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2490,13 +2482,13 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2510,11 +2502,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2527,25 +2519,25 @@
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2594,7 +2586,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2606,13 +2598,13 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -2626,7 +2618,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2646,16 +2638,16 @@
         <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2706,7 +2698,7 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
@@ -2718,27 +2710,27 @@
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2746,31 +2738,31 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="I12" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2796,63 +2788,63 @@
         <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
+      <c r="AK12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>163</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2863,25 +2855,25 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2908,47 +2900,47 @@
         <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>76</v>
@@ -2962,7 +2954,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2982,16 +2974,16 @@
         <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3018,11 +3010,11 @@
         <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>76</v>
@@ -3040,7 +3032,7 @@
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3052,16 +3044,16 @@
         <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>76</v>
@@ -3072,7 +3064,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3092,19 +3084,19 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3130,11 +3122,11 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>76</v>
@@ -3152,7 +3144,7 @@
         <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3164,13 +3156,13 @@
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3184,7 +3176,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3204,16 +3196,16 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3240,11 +3232,11 @@
         <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>76</v>
@@ -3262,7 +3254,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3274,19 +3266,19 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>76</v>
@@ -3294,7 +3286,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3305,25 +3297,25 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3350,61 +3342,61 @@
         <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3424,16 +3416,16 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3460,14 +3452,14 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3484,7 +3476,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3496,27 +3488,27 @@
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>203</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3539,13 +3531,13 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3596,7 +3588,7 @@
         <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3608,13 +3600,13 @@
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3628,7 +3620,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3639,7 +3631,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -3651,16 +3643,16 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3710,39 +3702,39 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3753,7 +3745,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>76</v>
@@ -3765,13 +3757,13 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3822,39 +3814,39 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>225</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3877,13 +3869,13 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3934,7 +3926,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -3946,19 +3938,19 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>76</v>
@@ -3966,7 +3958,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3974,28 +3966,28 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="H23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4046,39 +4038,39 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4089,25 +4081,25 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4158,39 +4150,39 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>249</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4201,7 +4193,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4213,13 +4205,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4270,28 +4262,28 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4302,7 +4294,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4325,13 +4317,13 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4382,7 +4374,7 @@
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4394,13 +4386,13 @@
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4414,7 +4406,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4425,7 +4417,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -4437,16 +4429,16 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4496,28 +4488,28 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4528,7 +4520,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4539,7 +4531,7 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>76</v>
@@ -4551,16 +4543,16 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4610,39 +4602,39 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="AM28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4653,7 +4645,7 @@
         <v>77</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>76</v>
@@ -4665,13 +4657,13 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4722,43 +4714,43 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4777,13 +4769,13 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4834,7 +4826,7 @@
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4846,13 +4838,13 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4866,7 +4858,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4874,7 +4866,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>78</v>
@@ -4889,13 +4881,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4946,10 +4938,10 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -4958,27 +4950,27 @@
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>295</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4989,7 +4981,7 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -5001,13 +4993,13 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5058,13 +5050,13 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -5076,7 +5068,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5090,11 +5082,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5113,16 +5105,16 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5172,7 +5164,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5184,13 +5176,13 @@
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5204,11 +5196,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5221,25 +5213,25 @@
         <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5288,7 +5280,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5300,13 +5292,13 @@
         <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5320,7 +5312,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5340,19 +5332,19 @@
         <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5378,14 +5370,14 @@
         <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="X35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5402,7 +5394,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5414,27 +5406,27 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5442,28 +5434,28 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5514,39 +5506,39 @@
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5557,25 +5549,25 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5602,52 +5594,52 @@
         <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5658,7 +5650,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5666,28 +5658,28 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5714,63 +5706,63 @@
         <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="AL38" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5781,7 +5773,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>76</v>
@@ -5793,13 +5785,13 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5850,25 +5842,25 @@
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5882,7 +5874,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5905,16 +5897,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5964,7 +5956,7 @@
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -5976,13 +5968,13 @@
         <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5991,7 +5983,7 @@
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:19:36+00:00</t>
+    <t>2022-11-03T06:58:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
+++ b/branches/master/StructureDefinition-covid19-vaccination-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:58:58+00:00</t>
+    <t>2022-11-03T14:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
